--- a/online_translators/xlsx_accuracy/yandex_size_compatibility.xlsx
+++ b/online_translators/xlsx_accuracy/yandex_size_compatibility.xlsx
@@ -405,10 +405,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4558823529411765</v>
+        <v>0.6642857142857143</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5303030303030303</v>
+        <v>0.5739130434782609</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -417,7 +417,7 @@
       </c>
       <c r="B3" t="s"/>
       <c r="C3" t="n">
-        <v>0.6414141414141414</v>
+        <v>0.6695652173913044</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -425,10 +425,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4019607843137255</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5606060606060606</v>
+        <v>0.6956521739130435</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -436,10 +436,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5098039215686274</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5707070707070707</v>
+        <v>0.4434782608695652</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -447,7 +447,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.6928571428571428</v>
       </c>
       <c r="C6" t="s"/>
     </row>
